--- a/data/pca/factorExposure/factorExposure_2009-01-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01630904138821587</v>
+        <v>0.01513330726007015</v>
       </c>
       <c r="C2">
-        <v>0.01089373036964979</v>
+        <v>0.0123048563987253</v>
       </c>
       <c r="D2">
-        <v>-0.01489962612924209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01390060640335249</v>
+      </c>
+      <c r="E2">
+        <v>-0.0003537831097440168</v>
+      </c>
+      <c r="F2">
+        <v>-0.007955522516695677</v>
+      </c>
+      <c r="G2">
+        <v>0.01700324800163143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08148628103448549</v>
+        <v>0.08390528190499465</v>
       </c>
       <c r="C4">
-        <v>0.08446006173844152</v>
+        <v>0.09071049620524338</v>
       </c>
       <c r="D4">
-        <v>0.06697610221417041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06753961326187488</v>
+      </c>
+      <c r="E4">
+        <v>-0.0216695237024617</v>
+      </c>
+      <c r="F4">
+        <v>-0.03017855495413805</v>
+      </c>
+      <c r="G4">
+        <v>0.03216739235888395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.003098602185920626</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002067425600596124</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.001675081760932185</v>
+      </c>
+      <c r="E5">
+        <v>0.002899685526547616</v>
+      </c>
+      <c r="F5">
+        <v>0.00307794222450507</v>
+      </c>
+      <c r="G5">
+        <v>-0.002362055978191906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1680072209960292</v>
+        <v>0.1699722944969246</v>
       </c>
       <c r="C6">
-        <v>-0.02062234376085447</v>
+        <v>-0.01124720801210006</v>
       </c>
       <c r="D6">
-        <v>0.0540229657369375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0555995855121726</v>
+      </c>
+      <c r="E6">
+        <v>-0.02043810386024601</v>
+      </c>
+      <c r="F6">
+        <v>0.05450479296239089</v>
+      </c>
+      <c r="G6">
+        <v>-0.00938944438342814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0552341960083555</v>
+        <v>0.05927259167615785</v>
       </c>
       <c r="C7">
-        <v>0.06067486687994985</v>
+        <v>0.06507261383756356</v>
       </c>
       <c r="D7">
-        <v>0.04585829466060364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05221648725678407</v>
+      </c>
+      <c r="E7">
+        <v>-0.05267182196336959</v>
+      </c>
+      <c r="F7">
+        <v>-0.06180387194626759</v>
+      </c>
+      <c r="G7">
+        <v>0.0440809438063644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05447491060599081</v>
+        <v>0.0510977503575054</v>
       </c>
       <c r="C8">
-        <v>0.04843337509578161</v>
+        <v>0.04923390087130171</v>
       </c>
       <c r="D8">
-        <v>-0.02013495823116847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02255976308029659</v>
+      </c>
+      <c r="E8">
+        <v>0.01322537037361796</v>
+      </c>
+      <c r="F8">
+        <v>-0.04315080454082126</v>
+      </c>
+      <c r="G8">
+        <v>-0.001116120599298394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06076595562896828</v>
+        <v>0.06423647056135585</v>
       </c>
       <c r="C9">
-        <v>0.08766942160433334</v>
+        <v>0.09201915266084064</v>
       </c>
       <c r="D9">
-        <v>0.09208403785687404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08893538206044831</v>
+      </c>
+      <c r="E9">
+        <v>-0.02323589782847443</v>
+      </c>
+      <c r="F9">
+        <v>-0.06100571873828509</v>
+      </c>
+      <c r="G9">
+        <v>0.00560062900988689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.110044065786563</v>
+        <v>0.1019961234941805</v>
       </c>
       <c r="C10">
-        <v>-0.1418009884461643</v>
+        <v>-0.1345437737183011</v>
       </c>
       <c r="D10">
-        <v>-0.106030003888085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09624995682716685</v>
+      </c>
+      <c r="E10">
+        <v>0.01087644605226736</v>
+      </c>
+      <c r="F10">
+        <v>-0.03788123403895044</v>
+      </c>
+      <c r="G10">
+        <v>-0.0125785855640104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07863693785251824</v>
+        <v>0.07668385409220937</v>
       </c>
       <c r="C11">
-        <v>0.1298433722576889</v>
+        <v>0.1300378299766724</v>
       </c>
       <c r="D11">
-        <v>0.06151455596969015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05291796308944129</v>
+      </c>
+      <c r="E11">
+        <v>0.00941628057137558</v>
+      </c>
+      <c r="F11">
+        <v>-0.07611531181731651</v>
+      </c>
+      <c r="G11">
+        <v>0.006142974079826693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08225757740018212</v>
+        <v>0.07830584959732648</v>
       </c>
       <c r="C12">
-        <v>0.14819992655392</v>
+        <v>0.1499442353319748</v>
       </c>
       <c r="D12">
-        <v>0.06445052123540819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06064171059990871</v>
+      </c>
+      <c r="E12">
+        <v>0.003523715300794657</v>
+      </c>
+      <c r="F12">
+        <v>-0.08260416565693635</v>
+      </c>
+      <c r="G12">
+        <v>0.01001796820703861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04239282816261108</v>
+        <v>0.04266880143521258</v>
       </c>
       <c r="C13">
-        <v>0.0706781276371146</v>
+        <v>0.07722999350766566</v>
       </c>
       <c r="D13">
-        <v>0.03325506102140907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0324966235828323</v>
+      </c>
+      <c r="E13">
+        <v>-0.01797664076509236</v>
+      </c>
+      <c r="F13">
+        <v>-0.06977843606069731</v>
+      </c>
+      <c r="G13">
+        <v>0.01303543858537972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02026174094187093</v>
+        <v>0.02312403177592749</v>
       </c>
       <c r="C14">
-        <v>0.04613995957139459</v>
+        <v>0.0460352383049055</v>
       </c>
       <c r="D14">
-        <v>0.05428070432007719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05033174943916258</v>
+      </c>
+      <c r="E14">
+        <v>0.004970311783186895</v>
+      </c>
+      <c r="F14">
+        <v>-0.07855398309601723</v>
+      </c>
+      <c r="G14">
+        <v>-0.003867335461232952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03133660049179419</v>
+        <v>0.03356514529653468</v>
       </c>
       <c r="C15">
-        <v>0.0565808069876812</v>
+        <v>0.0560196683744381</v>
       </c>
       <c r="D15">
-        <v>0.04585523213566298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04120037504284094</v>
+      </c>
+      <c r="E15">
+        <v>-0.01708007258358868</v>
+      </c>
+      <c r="F15">
+        <v>-0.0307466718989809</v>
+      </c>
+      <c r="G15">
+        <v>-0.01038091491672133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05736612163220731</v>
+        <v>0.0574986303791131</v>
       </c>
       <c r="C16">
-        <v>0.1460891384292381</v>
+        <v>0.1461840003608866</v>
       </c>
       <c r="D16">
-        <v>0.0757998958878867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06716695128026305</v>
+      </c>
+      <c r="E16">
+        <v>0.02531334203962977</v>
+      </c>
+      <c r="F16">
+        <v>-0.07555179644771443</v>
+      </c>
+      <c r="G16">
+        <v>0.009974412404075875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.005375178565719581</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.00431739890773953</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0006308199168492741</v>
+      </c>
+      <c r="E17">
+        <v>0.009052704893121176</v>
+      </c>
+      <c r="F17">
+        <v>0.006685849750266099</v>
+      </c>
+      <c r="G17">
+        <v>-0.01478717094964776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03627289953974431</v>
+        <v>0.05168098717907138</v>
       </c>
       <c r="C18">
-        <v>0.04769987197367607</v>
+        <v>0.04240775984465343</v>
       </c>
       <c r="D18">
-        <v>-0.002205980279051664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.008225663525373366</v>
+      </c>
+      <c r="E18">
+        <v>0.004136105088335816</v>
+      </c>
+      <c r="F18">
+        <v>0.05336100714554495</v>
+      </c>
+      <c r="G18">
+        <v>-0.01176657264668431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05616427100566875</v>
+        <v>0.05630142598622447</v>
       </c>
       <c r="C20">
-        <v>0.09481744709980092</v>
+        <v>0.0941081349019916</v>
       </c>
       <c r="D20">
-        <v>0.08389494910903805</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07827832652393128</v>
+      </c>
+      <c r="E20">
+        <v>0.007853272424061478</v>
+      </c>
+      <c r="F20">
+        <v>-0.07406716808145553</v>
+      </c>
+      <c r="G20">
+        <v>-0.003557482859549231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04377481386322435</v>
+        <v>0.04531015744184914</v>
       </c>
       <c r="C21">
-        <v>0.06058794590207487</v>
+        <v>0.05824919742851649</v>
       </c>
       <c r="D21">
-        <v>0.006496223002843607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.004326360057842427</v>
+      </c>
+      <c r="E21">
+        <v>-0.008772212856137666</v>
+      </c>
+      <c r="F21">
+        <v>-0.07094509155225356</v>
+      </c>
+      <c r="G21">
+        <v>0.02161239358373828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04557909445825632</v>
+        <v>0.04459333802980809</v>
       </c>
       <c r="C22">
-        <v>0.02581367123677989</v>
+        <v>0.02883825734638342</v>
       </c>
       <c r="D22">
-        <v>-0.01011295750474489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02473893519940754</v>
+      </c>
+      <c r="E22">
+        <v>0.1465346867716053</v>
+      </c>
+      <c r="F22">
+        <v>0.02653546906770763</v>
+      </c>
+      <c r="G22">
+        <v>0.0004472662110954593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04558854062513053</v>
+        <v>0.04460138667852399</v>
       </c>
       <c r="C23">
-        <v>0.02580621679005515</v>
+        <v>0.02883180605430393</v>
       </c>
       <c r="D23">
-        <v>-0.01013643055156656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02476455070873395</v>
+      </c>
+      <c r="E23">
+        <v>0.1465733921139973</v>
+      </c>
+      <c r="F23">
+        <v>0.0265261119481594</v>
+      </c>
+      <c r="G23">
+        <v>0.0004088333417179054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06637161820459796</v>
+        <v>0.06584510887392153</v>
       </c>
       <c r="C24">
-        <v>0.1352904211102997</v>
+        <v>0.1342720158924916</v>
       </c>
       <c r="D24">
-        <v>0.06501071699879141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05880291362526723</v>
+      </c>
+      <c r="E24">
+        <v>0.00747205619613006</v>
+      </c>
+      <c r="F24">
+        <v>-0.07578391846941908</v>
+      </c>
+      <c r="G24">
+        <v>0.009873715940989519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0719354659131549</v>
+        <v>0.07045482585833758</v>
       </c>
       <c r="C25">
-        <v>0.1202551445106222</v>
+        <v>0.1192629344588413</v>
       </c>
       <c r="D25">
-        <v>0.04691168522456186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03874562353126189</v>
+      </c>
+      <c r="E25">
+        <v>-0.02177257564584583</v>
+      </c>
+      <c r="F25">
+        <v>-0.08889051519010131</v>
+      </c>
+      <c r="G25">
+        <v>0.01521616936388071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05636845852614272</v>
+        <v>0.06059440076433446</v>
       </c>
       <c r="C26">
-        <v>0.0683914554718032</v>
+        <v>0.06913092025186934</v>
       </c>
       <c r="D26">
-        <v>0.03043393958168564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0248695044441328</v>
+      </c>
+      <c r="E26">
+        <v>0.008378459131191854</v>
+      </c>
+      <c r="F26">
+        <v>-0.08018087680469872</v>
+      </c>
+      <c r="G26">
+        <v>-0.002944068987089715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1712302539217727</v>
+        <v>0.1736284442993067</v>
       </c>
       <c r="C28">
-        <v>-0.2289439035857048</v>
+        <v>-0.2291789104144662</v>
       </c>
       <c r="D28">
-        <v>-0.02626187192936373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03293726304102708</v>
+      </c>
+      <c r="E28">
+        <v>-0.06045390166181043</v>
+      </c>
+      <c r="F28">
+        <v>-0.1374603970208718</v>
+      </c>
+      <c r="G28">
+        <v>-0.005531422803058407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02415651151022416</v>
+        <v>0.02677519994059284</v>
       </c>
       <c r="C29">
-        <v>0.04825532014069517</v>
+        <v>0.04568441280216257</v>
       </c>
       <c r="D29">
-        <v>0.01541205061227131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01203029259638813</v>
+      </c>
+      <c r="E29">
+        <v>0.02255492881669898</v>
+      </c>
+      <c r="F29">
+        <v>-0.07564627621306533</v>
+      </c>
+      <c r="G29">
+        <v>-0.0005208948602465912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03953789451273619</v>
+        <v>0.04157868594029188</v>
       </c>
       <c r="C30">
-        <v>0.06829809076282287</v>
+        <v>0.0761643965956636</v>
       </c>
       <c r="D30">
-        <v>0.1192472973105314</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1034628092766879</v>
+      </c>
+      <c r="E30">
+        <v>-0.08169601998322855</v>
+      </c>
+      <c r="F30">
+        <v>-0.07659897050656932</v>
+      </c>
+      <c r="G30">
+        <v>-0.01956324689470812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05204085199878977</v>
+        <v>0.05154151799860957</v>
       </c>
       <c r="C31">
-        <v>0.03341968525453013</v>
+        <v>0.03646231409747484</v>
       </c>
       <c r="D31">
-        <v>0.01581537917365073</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01942282015608718</v>
+      </c>
+      <c r="E31">
+        <v>0.03351305065088522</v>
+      </c>
+      <c r="F31">
+        <v>-0.01695891517930993</v>
+      </c>
+      <c r="G31">
+        <v>0.02427397280105188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04343506459148719</v>
+        <v>0.04778112512641613</v>
       </c>
       <c r="C32">
-        <v>0.0512778380622736</v>
+        <v>0.04782374215644241</v>
       </c>
       <c r="D32">
-        <v>0.02362051922029645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02405279379103598</v>
+      </c>
+      <c r="E32">
+        <v>0.022158147273142</v>
+      </c>
+      <c r="F32">
+        <v>-0.003901530191456348</v>
+      </c>
+      <c r="G32">
+        <v>-0.006872367400409208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07832860106800171</v>
+        <v>0.08202022791076459</v>
       </c>
       <c r="C33">
-        <v>0.1076270637645281</v>
+        <v>0.1181677115754931</v>
       </c>
       <c r="D33">
-        <v>0.06884501055574971</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07056503198169732</v>
+      </c>
+      <c r="E33">
+        <v>0.007204060951905185</v>
+      </c>
+      <c r="F33">
+        <v>-0.07621252472081605</v>
+      </c>
+      <c r="G33">
+        <v>0.00339845988512698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05427011844570524</v>
+        <v>0.05441631089649108</v>
       </c>
       <c r="C34">
-        <v>0.1195454051028506</v>
+        <v>0.1219579710158381</v>
       </c>
       <c r="D34">
-        <v>0.08152586982981744</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0672604298458072</v>
+      </c>
+      <c r="E34">
+        <v>-0.02602060882753309</v>
+      </c>
+      <c r="F34">
+        <v>-0.08938701532689987</v>
+      </c>
+      <c r="G34">
+        <v>-0.01991760392752799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02710911284777307</v>
+        <v>0.02958238323143083</v>
       </c>
       <c r="C35">
-        <v>0.01812305657212639</v>
+        <v>0.01968295830315753</v>
       </c>
       <c r="D35">
-        <v>0.02781614661808654</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02421887261384344</v>
+      </c>
+      <c r="E35">
+        <v>0.01677493892886601</v>
+      </c>
+      <c r="F35">
+        <v>-0.03308169693762725</v>
+      </c>
+      <c r="G35">
+        <v>-0.0276183188500203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02286733886469169</v>
+        <v>0.02725878831759409</v>
       </c>
       <c r="C36">
-        <v>0.0481394831092656</v>
+        <v>0.04861968270774297</v>
       </c>
       <c r="D36">
-        <v>0.06776755315735682</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05942796095040544</v>
+      </c>
+      <c r="E36">
+        <v>0.008841555530491985</v>
+      </c>
+      <c r="F36">
+        <v>-0.03356239217650156</v>
+      </c>
+      <c r="G36">
+        <v>-0.08043300008437405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003541708778232212</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006712916399853486</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.001096262788370046</v>
+      </c>
+      <c r="E37">
+        <v>0.0006633662742159893</v>
+      </c>
+      <c r="F37">
+        <v>-0.0104441465646491</v>
+      </c>
+      <c r="G37">
+        <v>0.006461860225840258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08398955336471245</v>
+        <v>0.07830619605329352</v>
       </c>
       <c r="C39">
-        <v>0.1528511886273377</v>
+        <v>0.1480209548039418</v>
       </c>
       <c r="D39">
-        <v>0.04831490610701467</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04105198233558265</v>
+      </c>
+      <c r="E39">
+        <v>0.00944133816863061</v>
+      </c>
+      <c r="F39">
+        <v>-0.1237930869174372</v>
+      </c>
+      <c r="G39">
+        <v>0.04830649567476514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0462030635934205</v>
+        <v>0.05083539505558177</v>
       </c>
       <c r="C40">
-        <v>0.06688136774373805</v>
+        <v>0.07229381887158223</v>
       </c>
       <c r="D40">
-        <v>0.01963940472009093</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.00933736385495048</v>
+      </c>
+      <c r="E40">
+        <v>0.006713936941966444</v>
+      </c>
+      <c r="F40">
+        <v>-0.05330792251614627</v>
+      </c>
+      <c r="G40">
+        <v>-0.04190599027448681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02651254849242556</v>
+        <v>0.02833861199803135</v>
       </c>
       <c r="C41">
-        <v>0.02097595677223829</v>
+        <v>0.02178861619964092</v>
       </c>
       <c r="D41">
-        <v>-0.006945297549942754</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.00625861884103445</v>
+      </c>
+      <c r="E41">
+        <v>0.008708902274207914</v>
+      </c>
+      <c r="F41">
+        <v>0.01144405741735709</v>
+      </c>
+      <c r="G41">
+        <v>-0.01248747268009969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04248448738531591</v>
+        <v>0.04198575819211751</v>
       </c>
       <c r="C43">
-        <v>0.04110146397498076</v>
+        <v>0.03812529791082688</v>
       </c>
       <c r="D43">
-        <v>0.005367397693533236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.003056175246151825</v>
+      </c>
+      <c r="E43">
+        <v>0.03187554348651996</v>
+      </c>
+      <c r="F43">
+        <v>-0.0232654352841243</v>
+      </c>
+      <c r="G43">
+        <v>0.001305922914444862</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05618329925128372</v>
+        <v>0.06382957945289486</v>
       </c>
       <c r="C44">
-        <v>0.07953419956771954</v>
+        <v>0.0861260966260709</v>
       </c>
       <c r="D44">
-        <v>0.2797997217665538</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2554320081701741</v>
+      </c>
+      <c r="E44">
+        <v>-0.07538399278857774</v>
+      </c>
+      <c r="F44">
+        <v>-0.1591132209439692</v>
+      </c>
+      <c r="G44">
+        <v>-0.1684181175977827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.000211781378304664</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0002737963480531353</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.001490752785601674</v>
+      </c>
+      <c r="E45">
+        <v>-0.001299073137826748</v>
+      </c>
+      <c r="F45">
+        <v>-0.0004940127426911727</v>
+      </c>
+      <c r="G45">
+        <v>0.00504055790116072</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02813265860374338</v>
+        <v>0.02776823745121577</v>
       </c>
       <c r="C46">
-        <v>0.03474727280336942</v>
+        <v>0.03348663865201221</v>
       </c>
       <c r="D46">
-        <v>0.01755077455785509</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01584698320718383</v>
+      </c>
+      <c r="E46">
+        <v>0.04126444896875246</v>
+      </c>
+      <c r="F46">
+        <v>-0.06812001842933747</v>
+      </c>
+      <c r="G46">
+        <v>0.02953877701561102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05147644348491331</v>
+        <v>0.05089544461964228</v>
       </c>
       <c r="C47">
-        <v>0.02337938877199102</v>
+        <v>0.02649624774657344</v>
       </c>
       <c r="D47">
-        <v>-0.01642425271700338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007768960360155169</v>
+      </c>
+      <c r="E47">
+        <v>0.05998722487162091</v>
+      </c>
+      <c r="F47">
+        <v>0.009041768126016626</v>
+      </c>
+      <c r="G47">
+        <v>0.03006235329401416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04676840448700156</v>
+        <v>0.05003591208152081</v>
       </c>
       <c r="C48">
-        <v>0.06961778309430236</v>
+        <v>0.06875795565548121</v>
       </c>
       <c r="D48">
-        <v>0.02496210482168873</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02185459037764848</v>
+      </c>
+      <c r="E48">
+        <v>-0.02143540549677874</v>
+      </c>
+      <c r="F48">
+        <v>-0.05390082982696188</v>
+      </c>
+      <c r="G48">
+        <v>0.02386621278566925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1942351794862193</v>
+        <v>0.1977184292358328</v>
       </c>
       <c r="C49">
-        <v>-0.01227157964101372</v>
+        <v>-0.006096899309223979</v>
       </c>
       <c r="D49">
-        <v>0.02719362137285258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03551932076763741</v>
+      </c>
+      <c r="E49">
+        <v>-0.03310498629244317</v>
+      </c>
+      <c r="F49">
+        <v>0.05813250726269265</v>
+      </c>
+      <c r="G49">
+        <v>0.001008214152538283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05034681501559702</v>
+        <v>0.05199727597310142</v>
       </c>
       <c r="C50">
-        <v>0.03107273059877294</v>
+        <v>0.03383958121343446</v>
       </c>
       <c r="D50">
-        <v>0.02350514639622216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02822206015195499</v>
+      </c>
+      <c r="E50">
+        <v>0.02226711749746217</v>
+      </c>
+      <c r="F50">
+        <v>-0.008439963553548965</v>
+      </c>
+      <c r="G50">
+        <v>0.02399261467955613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1442672092217332</v>
+        <v>0.1376248132297526</v>
       </c>
       <c r="C52">
-        <v>0.03414586319645985</v>
+        <v>0.03405501861188136</v>
       </c>
       <c r="D52">
-        <v>0.05655039909878624</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05711193418686707</v>
+      </c>
+      <c r="E52">
+        <v>0.02436483824422145</v>
+      </c>
+      <c r="F52">
+        <v>0.06816257707088216</v>
+      </c>
+      <c r="G52">
+        <v>0.0320439336971038</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1743963376202126</v>
+        <v>0.1655158830093165</v>
       </c>
       <c r="C53">
-        <v>-0.001882545930487198</v>
+        <v>0.00147428848080244</v>
       </c>
       <c r="D53">
-        <v>0.09633120158971543</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.104317044738384</v>
+      </c>
+      <c r="E53">
+        <v>0.0161048371607404</v>
+      </c>
+      <c r="F53">
+        <v>0.1101994531763132</v>
+      </c>
+      <c r="G53">
+        <v>0.06413330751021692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01072583045818272</v>
+        <v>0.01428401348469838</v>
       </c>
       <c r="C54">
-        <v>0.03254303039352451</v>
+        <v>0.03348514329887775</v>
       </c>
       <c r="D54">
-        <v>0.01624667233938119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01584400580702225</v>
+      </c>
+      <c r="E54">
+        <v>0.0169466243520361</v>
+      </c>
+      <c r="F54">
+        <v>-0.04616102392305385</v>
+      </c>
+      <c r="G54">
+        <v>0.002776883511654915</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1210243039021756</v>
+        <v>0.1175151254497693</v>
       </c>
       <c r="C55">
-        <v>0.006127398826556221</v>
+        <v>0.01176730699065222</v>
       </c>
       <c r="D55">
-        <v>0.06603508665295041</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.07088472697867258</v>
+      </c>
+      <c r="E55">
+        <v>0.04737506029765844</v>
+      </c>
+      <c r="F55">
+        <v>0.0347946612933108</v>
+      </c>
+      <c r="G55">
+        <v>0.06717072746652514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1810901949871216</v>
+        <v>0.1733026753739508</v>
       </c>
       <c r="C56">
-        <v>-0.008731151241746931</v>
+        <v>-0.007758479024103507</v>
       </c>
       <c r="D56">
-        <v>0.04460062552537798</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05689764296063719</v>
+      </c>
+      <c r="E56">
+        <v>0.04558847068855887</v>
+      </c>
+      <c r="F56">
+        <v>0.1452832407676257</v>
+      </c>
+      <c r="G56">
+        <v>0.06798714566550727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04397530848407148</v>
+        <v>0.0444102297934437</v>
       </c>
       <c r="C58">
-        <v>0.09915484583053881</v>
+        <v>0.1062156990678323</v>
       </c>
       <c r="D58">
-        <v>0.002030014769232535</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.008218681151366796</v>
+      </c>
+      <c r="E58">
+        <v>0.03702392743131749</v>
+      </c>
+      <c r="F58">
+        <v>-0.0415856229393571</v>
+      </c>
+      <c r="G58">
+        <v>0.02372100545463613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1880882968634792</v>
+        <v>0.1909041611796231</v>
       </c>
       <c r="C59">
-        <v>-0.1778182807124526</v>
+        <v>-0.1817325875158146</v>
       </c>
       <c r="D59">
-        <v>-0.08162714916167041</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08261125413125928</v>
+      </c>
+      <c r="E59">
+        <v>0.02127577151948716</v>
+      </c>
+      <c r="F59">
+        <v>-0.06100296773820777</v>
+      </c>
+      <c r="G59">
+        <v>0.03599883623016743</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2140164453809928</v>
+        <v>0.2090281863972775</v>
       </c>
       <c r="C60">
-        <v>0.002666086758395552</v>
+        <v>0.009268384714648897</v>
       </c>
       <c r="D60">
-        <v>-0.06811546950409013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04731689681064485</v>
+      </c>
+      <c r="E60">
+        <v>0.02690863624366123</v>
+      </c>
+      <c r="F60">
+        <v>0.1976428506043926</v>
+      </c>
+      <c r="G60">
+        <v>0.08653291559573613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06460663633441047</v>
+        <v>0.06184776057471506</v>
       </c>
       <c r="C61">
-        <v>0.1232278394760397</v>
+        <v>0.1210621177940623</v>
       </c>
       <c r="D61">
-        <v>0.03898306394210832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03271265611151652</v>
+      </c>
+      <c r="E61">
+        <v>0.02538014517018703</v>
+      </c>
+      <c r="F61">
+        <v>-0.08293380368823175</v>
+      </c>
+      <c r="G61">
+        <v>0.02256893524377932</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1686811712755041</v>
+        <v>0.1649474278589253</v>
       </c>
       <c r="C62">
-        <v>-0.01015838069831901</v>
+        <v>-0.007299031172618889</v>
       </c>
       <c r="D62">
-        <v>0.03689474246952652</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05150386759601792</v>
+      </c>
+      <c r="E62">
+        <v>0.04122040955104707</v>
+      </c>
+      <c r="F62">
+        <v>0.118578557002926</v>
+      </c>
+      <c r="G62">
+        <v>0.06283158483205815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03803888371947615</v>
+        <v>0.0430650296208594</v>
       </c>
       <c r="C63">
-        <v>0.07129421870385286</v>
+        <v>0.07451743625708884</v>
       </c>
       <c r="D63">
-        <v>0.03214794287040175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0266253580444976</v>
+      </c>
+      <c r="E63">
+        <v>0.02404494019211913</v>
+      </c>
+      <c r="F63">
+        <v>-0.04988840588169264</v>
+      </c>
+      <c r="G63">
+        <v>-0.02511560350610995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.111365674420412</v>
+        <v>0.1094679193341619</v>
       </c>
       <c r="C64">
-        <v>0.04798456752889792</v>
+        <v>0.05243224464090859</v>
       </c>
       <c r="D64">
-        <v>0.03610858856617385</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03838616872366676</v>
+      </c>
+      <c r="E64">
+        <v>0.01475819032706717</v>
+      </c>
+      <c r="F64">
+        <v>0.03804568154615216</v>
+      </c>
+      <c r="G64">
+        <v>0.001580780083524894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1561696244559534</v>
+        <v>0.1598882354257629</v>
       </c>
       <c r="C65">
-        <v>-0.06081684352581317</v>
+        <v>-0.05041013500826334</v>
       </c>
       <c r="D65">
-        <v>0.04593485099479231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0523062835564369</v>
+      </c>
+      <c r="E65">
+        <v>-0.01134159050099856</v>
+      </c>
+      <c r="F65">
+        <v>0.01206597877032184</v>
+      </c>
+      <c r="G65">
+        <v>0.01921007525407419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1018722518194961</v>
+        <v>0.09519192785131515</v>
       </c>
       <c r="C66">
-        <v>0.1313243693952363</v>
+        <v>0.1310495978185274</v>
       </c>
       <c r="D66">
-        <v>0.05031649271163671</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03940795282255514</v>
+      </c>
+      <c r="E66">
+        <v>0.001355510370581343</v>
+      </c>
+      <c r="F66">
+        <v>-0.1013905855383814</v>
+      </c>
+      <c r="G66">
+        <v>0.00184166576271879</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0584252160824178</v>
+        <v>0.04913474751934109</v>
       </c>
       <c r="C67">
-        <v>0.08473921512614785</v>
+        <v>0.07733007693639633</v>
       </c>
       <c r="D67">
-        <v>-0.04279245280152603</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.04352497426882582</v>
+      </c>
+      <c r="E67">
+        <v>0.08655709582433996</v>
+      </c>
+      <c r="F67">
+        <v>0.03748994047159277</v>
+      </c>
+      <c r="G67">
+        <v>-0.001118389604319635</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1399155152805828</v>
+        <v>0.1425286757080705</v>
       </c>
       <c r="C68">
-        <v>-0.2461925864467679</v>
+        <v>-0.2486496814552785</v>
       </c>
       <c r="D68">
-        <v>-0.05109996337832184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.05343635376387994</v>
+      </c>
+      <c r="E68">
+        <v>-0.1033183832820566</v>
+      </c>
+      <c r="F68">
+        <v>-0.1204874727656608</v>
+      </c>
+      <c r="G68">
+        <v>0.02588376465887112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03891374183453226</v>
+        <v>0.03828343556804891</v>
       </c>
       <c r="C69">
-        <v>0.01362353177222546</v>
+        <v>0.01559387851287271</v>
       </c>
       <c r="D69">
-        <v>0.01261425522190802</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01590154393220752</v>
+      </c>
+      <c r="E69">
+        <v>0.06059556920843122</v>
+      </c>
+      <c r="F69">
+        <v>0.04292142437135153</v>
+      </c>
+      <c r="G69">
+        <v>-0.02271988110348659</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07049397465698037</v>
+        <v>0.07155983622789965</v>
       </c>
       <c r="C70">
-        <v>0.08412268948047745</v>
+        <v>0.07927972573452605</v>
       </c>
       <c r="D70">
-        <v>-0.5076213201425098</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.4017551109239984</v>
+      </c>
+      <c r="E70">
+        <v>0.2649345015521413</v>
+      </c>
+      <c r="F70">
+        <v>0.354949925626906</v>
+      </c>
+      <c r="G70">
+        <v>0.4296582706350729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1630217516285773</v>
+        <v>0.1667448052174859</v>
       </c>
       <c r="C71">
-        <v>-0.252164244996944</v>
+        <v>-0.2520115982821575</v>
       </c>
       <c r="D71">
-        <v>-0.05184062325590583</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.05667290490057728</v>
+      </c>
+      <c r="E71">
+        <v>-0.1138240365912905</v>
+      </c>
+      <c r="F71">
+        <v>-0.1187571546603858</v>
+      </c>
+      <c r="G71">
+        <v>0.0264289841374115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.143718564337002</v>
+        <v>0.1489417591701422</v>
       </c>
       <c r="C72">
-        <v>0.01005831131908048</v>
+        <v>0.00714308029118815</v>
       </c>
       <c r="D72">
-        <v>0.0742336644870234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06745717873726478</v>
+      </c>
+      <c r="E72">
+        <v>0.04334054832271191</v>
+      </c>
+      <c r="F72">
+        <v>0.02185182936775143</v>
+      </c>
+      <c r="G72">
+        <v>-0.01223979537309378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1911130948103124</v>
+        <v>0.1992186569900746</v>
       </c>
       <c r="C73">
-        <v>0.0197038484201018</v>
+        <v>0.02984556673166444</v>
       </c>
       <c r="D73">
-        <v>0.06288920999107053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07155280870819129</v>
+      </c>
+      <c r="E73">
+        <v>0.05848224627971748</v>
+      </c>
+      <c r="F73">
+        <v>0.1055083879279971</v>
+      </c>
+      <c r="G73">
+        <v>-0.01526044173596687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08665301789472579</v>
+        <v>0.08587857468090591</v>
       </c>
       <c r="C74">
-        <v>0.004246404694562874</v>
+        <v>0.01103443206888851</v>
       </c>
       <c r="D74">
-        <v>0.07534239729236601</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.08197686545047538</v>
+      </c>
+      <c r="E74">
+        <v>0.01848364596679264</v>
+      </c>
+      <c r="F74">
+        <v>0.06776525500502914</v>
+      </c>
+      <c r="G74">
+        <v>-0.002599204050220139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1240297833414962</v>
+        <v>0.1162439985534838</v>
       </c>
       <c r="C75">
-        <v>0.01956146050966158</v>
+        <v>0.02257521028083735</v>
       </c>
       <c r="D75">
-        <v>0.06005503930589733</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.06251631101859798</v>
+      </c>
+      <c r="E75">
+        <v>0.05663216118774158</v>
+      </c>
+      <c r="F75">
+        <v>0.0582478839272445</v>
+      </c>
+      <c r="G75">
+        <v>0.04290751626072264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0730320656286705</v>
+        <v>0.08666390465815936</v>
       </c>
       <c r="C77">
-        <v>0.1159896937797713</v>
+        <v>0.1150551137668984</v>
       </c>
       <c r="D77">
-        <v>0.06901112993467241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07616849682198101</v>
+      </c>
+      <c r="E77">
+        <v>-0.02070742086056569</v>
+      </c>
+      <c r="F77">
+        <v>-0.08616055500345607</v>
+      </c>
+      <c r="G77">
+        <v>0.1088308997429777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08873589105267886</v>
+        <v>0.09265737932539911</v>
       </c>
       <c r="C78">
-        <v>0.1275269793710805</v>
+        <v>0.1263754295524244</v>
       </c>
       <c r="D78">
-        <v>0.0792657040359846</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0621527539941066</v>
+      </c>
+      <c r="E78">
+        <v>-0.01992652421039404</v>
+      </c>
+      <c r="F78">
+        <v>-0.1191455740504521</v>
+      </c>
+      <c r="G78">
+        <v>0.08605198454678946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1677384397560197</v>
+        <v>0.1626686310593559</v>
       </c>
       <c r="C79">
-        <v>0.01826874692482553</v>
+        <v>0.0187307361400742</v>
       </c>
       <c r="D79">
-        <v>0.03165387404290231</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03642901432261054</v>
+      </c>
+      <c r="E79">
+        <v>0.03941999674857451</v>
+      </c>
+      <c r="F79">
+        <v>0.05170769568537618</v>
+      </c>
+      <c r="G79">
+        <v>0.0433536074950024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07532964117166939</v>
+        <v>0.07340344304931265</v>
       </c>
       <c r="C80">
-        <v>0.06600486560300124</v>
+        <v>0.06308197718670212</v>
       </c>
       <c r="D80">
-        <v>0.01680727960033343</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0005847032379015164</v>
+      </c>
+      <c r="E80">
+        <v>0.04467187652567315</v>
+      </c>
+      <c r="F80">
+        <v>-0.101763236430387</v>
+      </c>
+      <c r="G80">
+        <v>-0.09784127730482772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1123555882719922</v>
+        <v>0.1056203931358234</v>
       </c>
       <c r="C81">
-        <v>-0.01364901324770596</v>
+        <v>-0.010063736824004</v>
       </c>
       <c r="D81">
-        <v>0.02986727140198952</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03487357318599633</v>
+      </c>
+      <c r="E81">
+        <v>0.06112642776428352</v>
+      </c>
+      <c r="F81">
+        <v>0.06787585397618748</v>
+      </c>
+      <c r="G81">
+        <v>0.006027386699412852</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1623044554252831</v>
+        <v>0.1584215373666645</v>
       </c>
       <c r="C82">
-        <v>-0.01671918685967558</v>
+        <v>-0.0109790430739256</v>
       </c>
       <c r="D82">
-        <v>0.09006321882720614</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09810718032546395</v>
+      </c>
+      <c r="E82">
+        <v>-0.004233680620782044</v>
+      </c>
+      <c r="F82">
+        <v>0.1171781843751362</v>
+      </c>
+      <c r="G82">
+        <v>-0.0002483345687264362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05378833706274891</v>
+        <v>0.04988920174844953</v>
       </c>
       <c r="C83">
-        <v>0.06402811984637165</v>
+        <v>0.05955756050900509</v>
       </c>
       <c r="D83">
-        <v>-0.009903136740435111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01130682824721776</v>
+      </c>
+      <c r="E83">
+        <v>0.007727190666229624</v>
+      </c>
+      <c r="F83">
+        <v>0.0007287925379365411</v>
+      </c>
+      <c r="G83">
+        <v>0.01571144720939599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05096027349560504</v>
+        <v>0.04845118662599113</v>
       </c>
       <c r="C84">
-        <v>0.07178268332171718</v>
+        <v>0.07030254013696592</v>
       </c>
       <c r="D84">
-        <v>0.00441663631699515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.006132687381100509</v>
+      </c>
+      <c r="E84">
+        <v>0.02330724192057466</v>
+      </c>
+      <c r="F84">
+        <v>0.01592617813522411</v>
+      </c>
+      <c r="G84">
+        <v>0.03071509940251281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1402892093911304</v>
+        <v>0.1343954901933937</v>
       </c>
       <c r="C85">
-        <v>0.004226160181616843</v>
+        <v>0.007586738753165845</v>
       </c>
       <c r="D85">
-        <v>0.09051655842341615</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09088464478799632</v>
+      </c>
+      <c r="E85">
+        <v>0.02051242717105623</v>
+      </c>
+      <c r="F85">
+        <v>0.04210210175111689</v>
+      </c>
+      <c r="G85">
+        <v>0.02793256226101025</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08336747427219839</v>
+        <v>0.08119020678663627</v>
       </c>
       <c r="C86">
-        <v>0.122651508488524</v>
+        <v>0.1225325166840836</v>
       </c>
       <c r="D86">
-        <v>-0.4595617636228899</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.5201183748484117</v>
+      </c>
+      <c r="E86">
+        <v>0.4796997887530452</v>
+      </c>
+      <c r="F86">
+        <v>-0.4988673491724543</v>
+      </c>
+      <c r="G86">
+        <v>-0.1064154502615481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08886914868113309</v>
+        <v>0.08735861494407465</v>
       </c>
       <c r="C87">
-        <v>0.09046303361624351</v>
+        <v>0.09164976200701258</v>
       </c>
       <c r="D87">
-        <v>0.050359270257318</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.03670417684567365</v>
+      </c>
+      <c r="E87">
+        <v>-0.1154150640502425</v>
+      </c>
+      <c r="F87">
+        <v>-0.08445120419863572</v>
+      </c>
+      <c r="G87">
+        <v>-0.05348037535228347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06073691186200247</v>
+        <v>0.06022168523835957</v>
       </c>
       <c r="C88">
-        <v>0.06103483786876971</v>
+        <v>0.06176234516188028</v>
       </c>
       <c r="D88">
-        <v>0.01657652725517526</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01919593019828745</v>
+      </c>
+      <c r="E88">
+        <v>0.01347754772297439</v>
+      </c>
+      <c r="F88">
+        <v>0.0282480907741197</v>
+      </c>
+      <c r="G88">
+        <v>0.01308491257075974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1488288653174735</v>
+        <v>0.1509029147838511</v>
       </c>
       <c r="C89">
-        <v>-0.1944443067114241</v>
+        <v>-0.2057863251591105</v>
       </c>
       <c r="D89">
-        <v>-0.02676478637771121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03813556369922183</v>
+      </c>
+      <c r="E89">
+        <v>-0.08750178440129872</v>
+      </c>
+      <c r="F89">
+        <v>-0.0929795359388115</v>
+      </c>
+      <c r="G89">
+        <v>-0.003320598805966047</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1771633110868115</v>
+        <v>0.1838691947549227</v>
       </c>
       <c r="C90">
-        <v>-0.2288854386758394</v>
+        <v>-0.2365629397835705</v>
       </c>
       <c r="D90">
-        <v>-0.07007619461118282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.07869742069064395</v>
+      </c>
+      <c r="E90">
+        <v>-0.1381767095469752</v>
+      </c>
+      <c r="F90">
+        <v>-0.1372097865218162</v>
+      </c>
+      <c r="G90">
+        <v>0.008736809359770756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1272020645176353</v>
+        <v>0.121305156818662</v>
       </c>
       <c r="C91">
-        <v>-0.02178573629835217</v>
+        <v>-0.01959494847054309</v>
       </c>
       <c r="D91">
-        <v>0.02892639933955444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03052686987959789</v>
+      </c>
+      <c r="E91">
+        <v>0.1042534555961856</v>
+      </c>
+      <c r="F91">
+        <v>0.09534738769669941</v>
+      </c>
+      <c r="G91">
+        <v>-0.007782591419917137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1719428532840123</v>
+        <v>0.1744961383423521</v>
       </c>
       <c r="C92">
-        <v>-0.2641356495459738</v>
+        <v>-0.2756890337399817</v>
       </c>
       <c r="D92">
-        <v>-0.06701527559705721</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.06552144021277696</v>
+      </c>
+      <c r="E92">
+        <v>-0.09212240765350435</v>
+      </c>
+      <c r="F92">
+        <v>-0.1796140850493511</v>
+      </c>
+      <c r="G92">
+        <v>0.05881274716552515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1779862967983396</v>
+        <v>0.1852107378395223</v>
       </c>
       <c r="C93">
-        <v>-0.2199476691195807</v>
+        <v>-0.2267692855569466</v>
       </c>
       <c r="D93">
-        <v>-0.03744349834275378</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.03709520074929275</v>
+      </c>
+      <c r="E93">
+        <v>-0.06883456611059616</v>
+      </c>
+      <c r="F93">
+        <v>-0.09211062273295358</v>
+      </c>
+      <c r="G93">
+        <v>0.06796156155829883</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1191829163726317</v>
+        <v>0.1133908432132848</v>
       </c>
       <c r="C94">
-        <v>0.03536941965467404</v>
+        <v>0.03489127850364506</v>
       </c>
       <c r="D94">
-        <v>0.05592671052265872</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05593846900907174</v>
+      </c>
+      <c r="E94">
+        <v>0.05146916745643982</v>
+      </c>
+      <c r="F94">
+        <v>0.05725577875230076</v>
+      </c>
+      <c r="G94">
+        <v>0.03837138842319154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1180582352806955</v>
+        <v>0.1209393020864547</v>
       </c>
       <c r="C95">
-        <v>0.1022895942000589</v>
+        <v>0.1114721967522561</v>
       </c>
       <c r="D95">
-        <v>0.01189930934782358</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01728329104131272</v>
+      </c>
+      <c r="E95">
+        <v>0.04058716488339145</v>
+      </c>
+      <c r="F95">
+        <v>-0.06848132027973547</v>
+      </c>
+      <c r="G95">
+        <v>0.007608332457545401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1119416674908436</v>
+        <v>0.1109355647993905</v>
       </c>
       <c r="C96">
-        <v>0.1075201706040097</v>
+        <v>0.1146255487482302</v>
       </c>
       <c r="D96">
-        <v>-0.02453526485300302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.0005289660402634119</v>
+      </c>
+      <c r="E96">
+        <v>0.01815244834611623</v>
+      </c>
+      <c r="F96">
+        <v>0.08259023085672614</v>
+      </c>
+      <c r="G96">
+        <v>0.08967922191101045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1906486255200374</v>
+        <v>0.195238218848412</v>
       </c>
       <c r="C97">
-        <v>-0.0009964331762059198</v>
+        <v>-0.003790282327801697</v>
       </c>
       <c r="D97">
-        <v>-0.1095036497180979</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1507076410654474</v>
+      </c>
+      <c r="E97">
+        <v>0.1170014062839457</v>
+      </c>
+      <c r="F97">
+        <v>0.3025950409822744</v>
+      </c>
+      <c r="G97">
+        <v>-0.816640450217287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1989150788844733</v>
+        <v>0.2042674070144289</v>
       </c>
       <c r="C98">
-        <v>0.02856964161964338</v>
+        <v>0.03280056406938807</v>
       </c>
       <c r="D98">
-        <v>-0.1150138131948067</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1021183403089191</v>
+      </c>
+      <c r="E98">
+        <v>-0.01355719471910172</v>
+      </c>
+      <c r="F98">
+        <v>0.1082142521261861</v>
+      </c>
+      <c r="G98">
+        <v>0.01321753463793556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05399682508487483</v>
+        <v>0.05359229964039958</v>
       </c>
       <c r="C99">
-        <v>0.0538248616730411</v>
+        <v>0.05505431414031726</v>
       </c>
       <c r="D99">
-        <v>0.009648474009498784</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.007459221263741153</v>
+      </c>
+      <c r="E99">
+        <v>0.002375679577776717</v>
+      </c>
+      <c r="F99">
+        <v>-0.03194798023588331</v>
+      </c>
+      <c r="G99">
+        <v>-0.01027093643541776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1147801416282059</v>
+        <v>0.1074950394538337</v>
       </c>
       <c r="C100">
-        <v>0.4030923050729607</v>
+        <v>0.368801298937136</v>
       </c>
       <c r="D100">
-        <v>-0.4583479531758166</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.5105560551294158</v>
+      </c>
+      <c r="E100">
+        <v>-0.6889826882166099</v>
+      </c>
+      <c r="F100">
+        <v>0.07855876907613106</v>
+      </c>
+      <c r="G100">
+        <v>-0.02420572745512643</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02409414649713956</v>
+        <v>0.02672021966292398</v>
       </c>
       <c r="C101">
-        <v>0.04778234331378509</v>
+        <v>0.04517325628581392</v>
       </c>
       <c r="D101">
-        <v>0.01117773407367762</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.008921544679974873</v>
+      </c>
+      <c r="E101">
+        <v>0.02435045709405152</v>
+      </c>
+      <c r="F101">
+        <v>-0.07052153726691857</v>
+      </c>
+      <c r="G101">
+        <v>0.002690191209776348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
